--- a/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B52ED04-5342-4B82-89A9-2BDA3CD7BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6DE3E9-7E98-4FB8-A7EF-E5B179CC6CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0075545-D0F5-4A20-83F1-A97271EDE5B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C96EC4F8-A2E6-440C-B0CD-AFD5566EF932}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,17%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,28 +104,28 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
@@ -134,28 +134,28 @@
     <t>15,82%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,40 +167,46 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>3,2%</t>
@@ -209,34 +215,34 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -245,67 +251,73 @@
     <t>88,92%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -314,37 +326,40 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>96,02%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>1,8%</t>
@@ -356,37 +371,37 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58467438-097F-4492-9DDB-F880DBD81B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788E1541-B8CE-4159-8A48-381F646B348C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1164,10 +1179,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,13 +1197,13 @@
         <v>99430</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -1197,13 +1212,13 @@
         <v>41397</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -1212,13 +1227,13 @@
         <v>140827</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,13 +1248,13 @@
         <v>160760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1248,13 +1263,13 @@
         <v>41098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -1263,13 +1278,13 @@
         <v>201858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1337,13 +1352,13 @@
         <v>597810</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>961</v>
@@ -1352,13 +1367,13 @@
         <v>683872</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1557</v>
@@ -1367,13 +1382,13 @@
         <v>1281682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,13 +1403,13 @@
         <v>32854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -1403,13 +1418,13 @@
         <v>15627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -1418,13 +1433,13 @@
         <v>48481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,13 +1454,13 @@
         <v>41626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -1454,13 +1469,13 @@
         <v>13665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -1469,13 +1484,13 @@
         <v>55291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1558,13 @@
         <v>2915509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>5152</v>
@@ -1558,28 +1573,28 @@
         <v>3666683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>8018</v>
       </c>
       <c r="N16" s="7">
-        <v>6582192</v>
+        <v>6582193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1609,13 @@
         <v>164686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -1609,13 +1624,13 @@
         <v>68346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -1624,13 +1639,13 @@
         <v>233032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,13 +1660,13 @@
         <v>287658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
@@ -1660,13 +1675,13 @@
         <v>62332</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -1675,13 +1690,13 @@
         <v>349990</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1738,7 @@
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7165215</v>
+        <v>7165216</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6DE3E9-7E98-4FB8-A7EF-E5B179CC6CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97413934-656D-4C47-AE95-E532CCBBD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C96EC4F8-A2E6-440C-B0CD-AFD5566EF932}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5EB3CE44-4352-4A00-B43F-F4DB00CC6C58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>Menos de tres vasos a la semana</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,244 +164,241 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788E1541-B8CE-4159-8A48-381F646B348C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C160647-2CFE-4B90-8536-A52395C67FE5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +934,7 @@
         <v>531</v>
       </c>
       <c r="D4" s="7">
-        <v>421436</v>
+        <v>403776</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +949,7 @@
         <v>1393</v>
       </c>
       <c r="I4" s="7">
-        <v>815946</v>
+        <v>737660</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +964,7 @@
         <v>1924</v>
       </c>
       <c r="N4" s="7">
-        <v>1237381</v>
+        <v>1141437</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +985,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>32402</v>
+        <v>30913</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>11322</v>
+        <v>9992</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1015,7 @@
         <v>63</v>
       </c>
       <c r="N5" s="7">
-        <v>43724</v>
+        <v>40905</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1036,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="7">
-        <v>85272</v>
+        <v>77831</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>7570</v>
+        <v>6818</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1066,7 @@
         <v>126</v>
       </c>
       <c r="N6" s="7">
-        <v>92842</v>
+        <v>84649</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1087,7 @@
         <v>688</v>
       </c>
       <c r="D7" s="7">
-        <v>539110</v>
+        <v>512520</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1102,7 @@
         <v>1425</v>
       </c>
       <c r="I7" s="7">
-        <v>834838</v>
+        <v>754469</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1117,7 @@
         <v>2113</v>
       </c>
       <c r="N7" s="7">
-        <v>1373947</v>
+        <v>1266990</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1140,7 @@
         <v>1739</v>
       </c>
       <c r="D8" s="7">
-        <v>1896264</v>
+        <v>2046477</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,7 +1155,7 @@
         <v>2798</v>
       </c>
       <c r="I8" s="7">
-        <v>2166866</v>
+        <v>2164349</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1173,7 +1170,7 @@
         <v>4537</v>
       </c>
       <c r="N8" s="7">
-        <v>4063129</v>
+        <v>4210826</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1191,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>99430</v>
+        <v>97489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1209,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>41397</v>
+        <v>37264</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1224,7 +1221,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>140827</v>
+        <v>134752</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1245,7 +1242,7 @@
         <v>162</v>
       </c>
       <c r="D10" s="7">
-        <v>160760</v>
+        <v>141118</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1260,7 +1257,7 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>41098</v>
+        <v>36048</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1275,7 +1272,7 @@
         <v>223</v>
       </c>
       <c r="N10" s="7">
-        <v>201858</v>
+        <v>177166</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1296,7 +1293,7 @@
         <v>1987</v>
       </c>
       <c r="D11" s="7">
-        <v>2156454</v>
+        <v>2285083</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1308,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2249361</v>
+        <v>2237661</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1323,7 @@
         <v>4907</v>
       </c>
       <c r="N11" s="7">
-        <v>4405814</v>
+        <v>4522744</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1349,7 +1346,7 @@
         <v>596</v>
       </c>
       <c r="D12" s="7">
-        <v>597810</v>
+        <v>576321</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1364,7 +1361,7 @@
         <v>961</v>
       </c>
       <c r="I12" s="7">
-        <v>683872</v>
+        <v>633463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1379,7 +1376,7 @@
         <v>1557</v>
       </c>
       <c r="N12" s="7">
-        <v>1281682</v>
+        <v>1209785</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1400,7 +1397,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>32854</v>
+        <v>31991</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1415,7 +1412,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>15627</v>
+        <v>14201</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1430,7 +1427,7 @@
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>48481</v>
+        <v>46191</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1451,7 +1448,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>41626</v>
+        <v>37637</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1466,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>13665</v>
+        <v>12141</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1481,7 +1478,7 @@
         <v>66</v>
       </c>
       <c r="N14" s="7">
-        <v>55291</v>
+        <v>49778</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1502,7 +1499,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>672290</v>
+        <v>645949</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1514,7 @@
         <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>713164</v>
+        <v>659805</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1529,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1385454</v>
+        <v>1305754</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,7 +1552,7 @@
         <v>2866</v>
       </c>
       <c r="D16" s="7">
-        <v>2915509</v>
+        <v>3026574</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1570,7 +1567,7 @@
         <v>5152</v>
       </c>
       <c r="I16" s="7">
-        <v>3666683</v>
+        <v>3535472</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -1585,7 +1582,7 @@
         <v>8018</v>
       </c>
       <c r="N16" s="7">
-        <v>6582193</v>
+        <v>6562047</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -1606,46 +1603,46 @@
         <v>165</v>
       </c>
       <c r="D17" s="7">
-        <v>164686</v>
+        <v>160392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>68346</v>
+        <v>61456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>233032</v>
+        <v>221848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1654,46 @@
         <v>324</v>
       </c>
       <c r="D18" s="7">
-        <v>287658</v>
+        <v>256586</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
       </c>
       <c r="I18" s="7">
-        <v>62332</v>
+        <v>55007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
       </c>
       <c r="N18" s="7">
-        <v>349990</v>
+        <v>311593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1705,7 @@
         <v>3355</v>
       </c>
       <c r="D19" s="7">
-        <v>3367853</v>
+        <v>3443552</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1720,7 @@
         <v>5348</v>
       </c>
       <c r="I19" s="7">
-        <v>3797362</v>
+        <v>3651935</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1735,7 @@
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7165216</v>
+        <v>7095488</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
